--- a/SynchronisationExperiment/Synchronisation Data.xlsx
+++ b/SynchronisationExperiment/Synchronisation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd32b36660bd2b6f/Documents/GitHub/SKELETON-PPC1/SynchronisationExperiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisak\Documents\GitHub\SKELETON-PPC1\SynchronisationExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8DEEFE34-80E4-4625-B8F0-2184A3C4E599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA660F8-1C38-4E7C-8A75-5D78CFD30AB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA5973-8656-4200-BD54-3CFF92B53767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -161,11 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,21 +176,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -205,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,23 +516,23 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,44 +555,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6">
+      <c r="C4" s="5"/>
+      <c r="D4" s="3">
         <v>-3.2149999999999999</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="9">
+        <v>-3.355</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
         <v>-1.9910000000000001</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="9">
+        <v>-1.8440000000000001</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="3">
         <v>-1.9490000000000001</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="3">
+        <v>-1.7210000000000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SynchronisationExperiment/Synchronisation Data.xlsx
+++ b/SynchronisationExperiment/Synchronisation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisak\Documents\GitHub\SKELETON-PPC1\SynchronisationExperiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd32b36660bd2b6f/Documents/GitHub/SKELETON-PPC1/SynchronisationExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA5973-8656-4200-BD54-3CFF92B53767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{77CA5973-8656-4200-BD54-3CFF92B53767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EFF3BC-9EA2-416D-B0BA-FFB79DFCE129}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Trial</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Sahand</t>
-  </si>
-  <si>
-    <t>Real</t>
   </si>
   <si>
     <t>Sync Offset Data</t>
@@ -150,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,12 +173,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,96 +507,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545486DB-EB80-4425-A043-11715227F266}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>-3.2149999999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="D4" s="5">
         <v>-3.355</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3">
+        <v>-3.298</v>
+      </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>-1.9910000000000001</v>
       </c>
-      <c r="E5" s="9">
+      <c r="D5" s="5">
         <v>-1.8440000000000001</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3">
+        <v>-1.9390000000000001</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="3">
+        <v>-1.9490000000000001</v>
+      </c>
       <c r="D6" s="3">
-        <v>-1.9490000000000001</v>
-      </c>
-      <c r="E6" s="3">
         <v>-1.7210000000000001</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3">
+        <v>-1.97</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SynchronisationExperiment/Synchronisation Data.xlsx
+++ b/SynchronisationExperiment/Synchronisation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd32b36660bd2b6f/Documents/GitHub/SKELETON-PPC1/SynchronisationExperiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\GitHub Repositories\SKELETON-PPC1\SynchronisationExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{77CA5973-8656-4200-BD54-3CFF92B53767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EFF3BC-9EA2-416D-B0BA-FFB79DFCE129}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCDB10-02EF-4C43-97BD-8E9065A345FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
+    <workbookView xWindow="57480" yWindow="8250" windowWidth="29040" windowHeight="15720" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,12 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -559,9 +559,11 @@
       <c r="F4" s="3">
         <v>-3.298</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3">
+        <v>-3.3170000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -575,9 +577,11 @@
       <c r="F5" s="3">
         <v>-1.9390000000000001</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3">
+        <v>-1.968</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -591,7 +595,9 @@
       <c r="F6" s="3">
         <v>-1.97</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3">
+        <v>-1.9430000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SynchronisationExperiment/Synchronisation Data.xlsx
+++ b/SynchronisationExperiment/Synchronisation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\GitHub Repositories\SKELETON-PPC1\SynchronisationExperiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd32b36660bd2b6f/Documents/GitHub/SKELETON-PPC1/SynchronisationExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCDB10-02EF-4C43-97BD-8E9065A345FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{69DCDB10-02EF-4C43-97BD-8E9065A345FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF53DBD-A45A-466C-8ED1-996F2BFBBCD2}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8250" windowWidth="29040" windowHeight="15720" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
+    <workbookView xWindow="2475" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{351D3C85-99E3-4F05-90BB-DCA3A0F5CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,18 +69,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -147,22 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +154,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,6 +179,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,22 +505,22 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,57 +540,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>-3.2149999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>-3.355</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3">
+      <c r="E4" s="5">
+        <v>-3.3</v>
+      </c>
+      <c r="F4" s="5">
         <v>-3.298</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>-3.3170000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>-1.9910000000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>-1.8440000000000001</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3">
+      <c r="E5" s="5">
+        <v>-1.982</v>
+      </c>
+      <c r="F5" s="5">
         <v>-1.9390000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>-1.968</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>-1.9490000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>-1.7210000000000001</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3">
+      <c r="E6" s="5">
+        <v>-2.008</v>
+      </c>
+      <c r="F6" s="5">
         <v>-1.97</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>-1.9430000000000001</v>
       </c>
     </row>
